--- a/docs/shrcore/shr-core-FocalDevice-model.xlsx
+++ b/docs/shrcore/shr-core-FocalDevice-model.xlsx
@@ -134,7 +134,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>A device that is implanted, removed or otherwise manipulated (e.g., calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.</t>
+    <t>Activity involving a device that is implanted, removed or otherwise manipulated (e.g., calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.</t>
   </si>
   <si>
     <t>shr-core-FocalDevice-model.device</t>
@@ -317,7 +317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
